--- a/cognitiondata.xlsx
+++ b/cognitiondata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/gavincko_alagesan_mail_utoronto_ca/Documents/Masters Program/Octagon Competition/Octagon_Competition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zoila\OneDrive\Documents\Octagon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{BB2ED6E0-5935-4126-AADC-096BBE0A5D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8E569E5-3B1C-4B48-835C-954437857535}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2ED6E0-5935-4126-AADC-096BBE0A5D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17800" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jimmy" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -256,12 +256,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -326,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -343,9 +337,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,15 +555,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL35"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +679,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -804,7 +795,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -920,7 +911,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1036,7 +1027,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1143,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1238,7 +1229,7 @@
       <c r="AK6" s="7"/>
       <c r="AL6" s="7"/>
     </row>
-    <row r="7" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1354,7 +1345,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1470,7 +1461,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1586,7 +1577,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1702,7 +1693,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1818,7 +1809,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1934,7 +1925,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>51</v>
       </c>
@@ -2050,7 +2041,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2166,7 +2157,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2282,7 +2273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2398,7 +2389,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2514,7 +2505,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2630,7 +2621,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2746,7 +2737,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2862,7 +2853,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -2978,7 +2969,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -3094,7 +3085,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -3210,7 +3201,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -3320,7 +3311,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -3436,7 +3427,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -3552,7 +3543,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -3668,7 +3659,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -3784,7 +3775,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -3900,7 +3891,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -4016,7 +4007,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -4132,7 +4123,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="12"/>
       <c r="E33" s="13"/>
       <c r="F33" s="12"/>
@@ -4169,7 +4160,7 @@
       <c r="AK33" s="8"/>
       <c r="AL33" s="8"/>
     </row>
-    <row r="34" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -4206,119 +4197,6 @@
       <c r="AK34" s="8"/>
       <c r="AL34" s="8"/>
     </row>
-    <row r="35" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="14">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" s="14">
-        <v>3</v>
-      </c>
-      <c r="E35">
-        <v>4</v>
-      </c>
-      <c r="F35" s="14">
-        <v>5</v>
-      </c>
-      <c r="G35">
-        <v>6</v>
-      </c>
-      <c r="H35" s="14">
-        <v>7</v>
-      </c>
-      <c r="I35">
-        <v>8</v>
-      </c>
-      <c r="J35" s="14">
-        <v>9</v>
-      </c>
-      <c r="K35">
-        <v>10</v>
-      </c>
-      <c r="L35" s="14">
-        <v>11</v>
-      </c>
-      <c r="M35">
-        <v>12</v>
-      </c>
-      <c r="N35" s="14">
-        <v>13</v>
-      </c>
-      <c r="O35">
-        <v>14</v>
-      </c>
-      <c r="P35" s="14">
-        <v>15</v>
-      </c>
-      <c r="Q35">
-        <v>16</v>
-      </c>
-      <c r="R35" s="14">
-        <v>17</v>
-      </c>
-      <c r="S35">
-        <v>18</v>
-      </c>
-      <c r="T35" s="14">
-        <v>19</v>
-      </c>
-      <c r="U35">
-        <v>20</v>
-      </c>
-      <c r="V35" s="14">
-        <v>21</v>
-      </c>
-      <c r="W35">
-        <v>22</v>
-      </c>
-      <c r="X35" s="14">
-        <v>23</v>
-      </c>
-      <c r="Y35">
-        <v>24</v>
-      </c>
-      <c r="Z35" s="14">
-        <v>25</v>
-      </c>
-      <c r="AA35">
-        <v>26</v>
-      </c>
-      <c r="AB35" s="14">
-        <v>27</v>
-      </c>
-      <c r="AC35">
-        <v>28</v>
-      </c>
-      <c r="AD35" s="14">
-        <v>29</v>
-      </c>
-      <c r="AE35">
-        <v>30</v>
-      </c>
-      <c r="AF35" s="14">
-        <v>31</v>
-      </c>
-      <c r="AG35">
-        <v>32</v>
-      </c>
-      <c r="AH35" s="14">
-        <v>33</v>
-      </c>
-      <c r="AI35">
-        <v>34</v>
-      </c>
-      <c r="AJ35" s="14">
-        <v>35</v>
-      </c>
-      <c r="AK35">
-        <v>36</v>
-      </c>
-      <c r="AL35" s="14">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D33:E33"/>
